--- a/iselUssSyncV2/OutputWSLorientation/20220524_1226_D50L474W30Q8.5U0.28H38.3G2_S1_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1226_D50L474W30Q8.5U0.28H38.3G2_S1_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.017214925634776224</v>
+        <v>0.0086074628173881118</v>
       </c>
       <c r="O2" s="0">
-        <v>0.56868345929298247</v>
+        <v>0.28434172964649124</v>
       </c>
       <c r="P2" s="0">
         <v>77.344116666666665</v>
@@ -356,10 +356,10 @@
         <v>0.75874578449999996</v>
       </c>
       <c r="R2" s="0">
-        <v>1.1180272613908775</v>
+        <v>2.236054522781755</v>
       </c>
       <c r="S2" s="0">
-        <v>0.20799103690984291</v>
+        <v>1.1452327999496144</v>
       </c>
       <c r="T2" s="0">
         <v>0.02276695175047843</v>
@@ -383,16 +383,16 @@
         <v>130000</v>
       </c>
       <c r="AA2" s="0">
-        <v>0.67864694422216965</v>
+        <v>0.33932347211108482</v>
       </c>
       <c r="AB2" s="0">
-        <v>3.6479734693033459</v>
+        <v>0.66252536998013134</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.2500761645598506</v>
+        <v>1.6250380822799253</v>
       </c>
       <c r="AD2" s="0">
-        <v>1.4220898528961365</v>
+        <v>0.71104492644806827</v>
       </c>
       <c r="AE2" s="0">
         <v>10</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>6.8980496338631969</v>
+        <v>2.2875634522600565</v>
       </c>
     </row>
   </sheetData>
